--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3_IE_Initial.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.3_IE_Initial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640EC7C3-1ADD-4F95-9B77-A22B32211AA1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D07BEB-ED61-43DD-BA71-A7CB58F5A7AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -208,6 +208,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +592,7 @@
         <v>1200</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,7 +604,7 @@
         <v>500</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,7 +616,7 @@
       <c r="D5" s="7">
         <v>900</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +628,7 @@
         <v>1400</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +640,7 @@
       <c r="D7" s="7">
         <v>700</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +648,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,7 +699,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -703,7 +711,7 @@
         <v>1400</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -711,7 +719,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -719,7 +727,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -727,7 +735,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -777,7 +785,7 @@
         <v>1200</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -866,7 +874,7 @@
         <v>900</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,7 +886,7 @@
         <v>700</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +894,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -894,7 +902,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,10 +910,11 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A10:F10"/>
